--- a/biology/Botanique/Microthlaspi/Microthlaspi.xlsx
+++ b/biology/Botanique/Microthlaspi/Microthlaspi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microthlaspi est un genre de plantes à fleurs de la famille des Brassicaceae.
 </t>
@@ -511,19 +523,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (28 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (28 juin 2021) :
 Microthlaspi granatense (Boiss. &amp; Reut.) F.K.Mey.
 Microthlaspi natolicum (Boiss.) F.K.Mey.
 Microthlaspi perfoliatum (L.) F.K.Mey.
 Microthlaspi perfoliatum Linnaeus, 1753
 Microthlaspi umbellatum (Steven ex DC.) F.K.Mey.
-Selon la World Flora Online (WFO)       (28 juin 2021)[2] :
+Selon la World Flora Online (WFO)       (28 juin 2021) :
 Microthlaspi granatense F.K. Meyer
 Microthlaspi natolicum F.K. Mey.
 Microthlaspi umbellatum F.K. Mey.
-Selon Tropicos                                           (28 juin 2021)[3] :
+Selon Tropicos                                           (28 juin 2021) :
 Microthlaspi erraticum (Jord.) Tahir Ali &amp; Thines, 2016
 Microthlaspi granatense F.K. Meyer, 1973
 Microthlaspi mediterraneo-orientale Tahir Ali &amp; Thines, 2016
@@ -531,7 +545,7 @@
 Microthlaspi perfoliatum (L.) F.K. Mey., 1973
 Microthlaspi sylvarum-cedri Tahir Ali &amp; Thines, 2016
 Microthlaspi umbellatum (Stev. ex DC.) F.K. Mey., 1973
-Selon Plants of the World online (POWO)                (28 juin 2021)[4] :
+Selon Plants of the World online (POWO)                (28 juin 2021) :
 aucune espèce, toutes transférées dans le genre Noccaea Moench</t>
         </is>
       </c>
